--- a/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Trimestral.xlsx
+++ b/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Serie</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2401,6 +2404,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>7353</v>
+      </c>
+      <c r="C59">
+        <v>497</v>
+      </c>
+      <c r="D59">
+        <v>1345</v>
+      </c>
+      <c r="E59">
+        <v>993</v>
+      </c>
+      <c r="F59">
+        <v>749</v>
+      </c>
+      <c r="G59">
+        <v>1370</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2400</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
